--- a/front/folhaponto.xlsx
+++ b/front/folhaponto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.augusto\Desktop\sisponto\front\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80702428-5CB5-4F5E-A0BA-6663FAE898C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267BA19B-C997-4565-8AB3-C23964551B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HIPER" sheetId="9" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>FOLHA INDIVIDUAL DE PONTO</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>Data Admissão</t>
+  </si>
+  <si>
+    <t>Horário</t>
+  </si>
+  <si>
+    <t>Matrícula:</t>
   </si>
 </sst>
 </file>
@@ -218,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,16 +266,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -276,6 +281,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD59B51-6882-487E-ACA8-C6A9C689BBF6}">
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +581,7 @@
     <col min="3" max="3" width="2" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -584,7 +596,7 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -599,30 +611,36 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
@@ -631,68 +649,83 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O6" s="22"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D11" s="17" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="3" t="s">
         <v>6</v>
       </c>
@@ -705,14 +738,14 @@
       <c r="G12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -725,7 +758,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -738,7 +771,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -751,7 +784,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1117,33 +1150,32 @@
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+    <row r="45" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A44:K44"/>
+  <mergeCells count="13">
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A45:K45"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
-    <mergeCell ref="H3:K3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="H4:K4"/>
-    <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="A12:C12"/>
